--- a/data/outputs/management_altmetric/49.xlsx
+++ b/data/outputs/management_altmetric/49.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE32"/>
+  <dimension ref="A1:CF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,11 @@
       <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>citeulike</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
         </is>
       </c>
     </row>
@@ -1001,6 +1006,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1253,6 +1261,9 @@
       </c>
       <c r="CE3" t="n">
         <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1497,6 +1508,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1748,6 +1762,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2003,6 +2020,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2250,6 +2270,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2498,6 +2521,9 @@
       </c>
       <c r="CE8" t="n">
         <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2732,6 +2758,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2981,6 +3010,9 @@
       <c r="CE10" t="n">
         <v>1</v>
       </c>
+      <c r="CF10" t="n">
+        <v>7.55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3230,6 +3262,9 @@
       <c r="CE11" t="n">
         <v>1</v>
       </c>
+      <c r="CF11" t="n">
+        <v>4.35</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3479,6 +3514,9 @@
       <c r="CE12" t="n">
         <v>1</v>
       </c>
+      <c r="CF12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3739,6 +3777,9 @@
       </c>
       <c r="CE13" t="n">
         <v>1</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="14">
@@ -3989,6 +4030,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4241,6 +4285,9 @@
       </c>
       <c r="CE15" t="n">
         <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>11.35</v>
       </c>
     </row>
     <row r="16">
@@ -4491,6 +4538,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4748,6 +4798,9 @@
       <c r="CE17" t="n">
         <v>1</v>
       </c>
+      <c r="CF17" t="n">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5008,6 +5061,9 @@
       </c>
       <c r="CE18" t="n">
         <v>2</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>28.38</v>
       </c>
     </row>
     <row r="19">
@@ -5236,6 +5292,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5495,6 +5554,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5755,6 +5817,9 @@
       </c>
       <c r="CE21" t="n">
         <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="22">
@@ -5999,6 +6064,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6246,6 +6314,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6491,6 +6562,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6736,6 +6810,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6980,6 +7057,9 @@
       </c>
       <c r="CE26" t="n">
         <v>1</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="27">
@@ -7208,6 +7288,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7459,6 +7542,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7710,6 +7796,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7955,6 +8044,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8214,6 +8306,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8461,6 +8556,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
